--- a/TextualAdventure/bin/resources/Mappa.xlsx
+++ b/TextualAdventure/bin/resources/Mappa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sentiero Montano</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Mappa provvisoria di Disboard</t>
+  </si>
+  <si>
+    <t>Sala del Trono</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,10 +97,71 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDotDot">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -111,85 +175,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashDotDot">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,22 +193,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,6 +207,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +554,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="49.5" customHeight="1"/>
@@ -585,49 +572,52 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="49.5" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
